--- a/database/industries/ghaza/ghepino/balancesheet/quarterly.xlsx
+++ b/database/industries/ghaza/ghepino/balancesheet/quarterly.xlsx
@@ -187,11 +187,11 @@
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -374,27 +374,27 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>فصل چهارم منتهی به 1396/12</t>
+          <t>فصل دوم منتهی به 1400/06</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr">
         <is>
-          <t>فصل چهارم منتهی به 1397/12</t>
+          <t>فصل سوم منتهی به 1400/09</t>
         </is>
       </c>
       <c r="F8" s="7" t="inlineStr">
         <is>
-          <t>فصل چهارم منتهی به 1398/12</t>
+          <t>فصل چهارم منتهی به 1400/12</t>
         </is>
       </c>
       <c r="G8" s="7" t="inlineStr">
         <is>
-          <t>فصل چهارم منتهی به 1399/12</t>
+          <t>فصل اول منتهی به 1401/03</t>
         </is>
       </c>
       <c r="H8" s="7" t="inlineStr">
         <is>
-          <t>فصل چهارم منتهی به 1400/12</t>
+          <t>فصل دوم منتهی به 1401/06</t>
         </is>
       </c>
     </row>
@@ -409,27 +409,27 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>1398-03-26 (10)</t>
+          <t>1400-08-10 (2)</t>
         </is>
       </c>
       <c r="E9" s="10" t="inlineStr">
         <is>
-          <t>1399-03-24 (11)</t>
+          <t>1400-10-30</t>
         </is>
       </c>
       <c r="F9" s="10" t="inlineStr">
         <is>
-          <t>1400-02-21 (9)</t>
+          <t>1401-08-16 (6)</t>
         </is>
       </c>
       <c r="G9" s="10" t="inlineStr">
         <is>
-          <t>1401-02-26 (11)</t>
+          <t>1401-04-28</t>
         </is>
       </c>
       <c r="H9" s="10" t="inlineStr">
         <is>
-          <t>1401-08-16 (6)</t>
+          <t>1401-08-16 (2)</t>
         </is>
       </c>
     </row>
@@ -491,19 +491,19 @@
         <v/>
       </c>
       <c r="D12" s="16">
-        <v>61025</v>
+        <v>54670</v>
       </c>
       <c r="E12" s="16">
-        <v>222507</v>
+        <v>122282</v>
       </c>
       <c r="F12" s="16">
-        <v>103259</v>
+        <v>42724</v>
       </c>
       <c r="G12" s="16">
-        <v>169459</v>
+        <v>303446</v>
       </c>
       <c r="H12" s="16">
-        <v>42724</v>
+        <v>219357</v>
       </c>
     </row>
     <row r="13">
@@ -516,13 +516,13 @@
         <v/>
       </c>
       <c r="D13" s="12">
-        <v>38439</v>
+        <v>0</v>
       </c>
       <c r="E13" s="12">
-        <v>3787</v>
+        <v>0</v>
       </c>
       <c r="F13" s="12">
-        <v>60844</v>
+        <v>0</v>
       </c>
       <c r="G13" s="12">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v/>
       </c>
       <c r="D14" s="16">
-        <v>1404217</v>
+        <v>2755422</v>
       </c>
       <c r="E14" s="16">
-        <v>1280364</v>
+        <v>4027727</v>
       </c>
       <c r="F14" s="16">
-        <v>1711672</v>
+        <v>4562285</v>
       </c>
       <c r="G14" s="16">
-        <v>2639597</v>
+        <v>5586203</v>
       </c>
       <c r="H14" s="16">
-        <v>4562285</v>
+        <v>7456431</v>
       </c>
     </row>
     <row r="15">
@@ -566,19 +566,19 @@
         <v/>
       </c>
       <c r="D15" s="12">
-        <v>347227</v>
+        <v>1880302</v>
       </c>
       <c r="E15" s="12">
-        <v>534086</v>
+        <v>1946913</v>
       </c>
       <c r="F15" s="12">
-        <v>1196888</v>
+        <v>2268622</v>
       </c>
       <c r="G15" s="12">
-        <v>2183919</v>
+        <v>2635516</v>
       </c>
       <c r="H15" s="12">
-        <v>2268622</v>
+        <v>2598375</v>
       </c>
     </row>
     <row r="16">
@@ -591,19 +591,19 @@
         <v/>
       </c>
       <c r="D16" s="16">
-        <v>49474</v>
+        <v>467223</v>
       </c>
       <c r="E16" s="16">
-        <v>131105</v>
+        <v>837148</v>
       </c>
       <c r="F16" s="16">
-        <v>284839</v>
+        <v>671750</v>
       </c>
       <c r="G16" s="16">
-        <v>89025</v>
+        <v>513602</v>
       </c>
       <c r="H16" s="16">
-        <v>671750</v>
+        <v>386970</v>
       </c>
     </row>
     <row r="17">
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="12">
         <v>0</v>
@@ -641,19 +641,19 @@
         <v/>
       </c>
       <c r="D18" s="18">
-        <v>1900382</v>
+        <v>5157617</v>
       </c>
       <c r="E18" s="18">
-        <v>2171850</v>
+        <v>6934070</v>
       </c>
       <c r="F18" s="18">
-        <v>3357502</v>
+        <v>7545381</v>
       </c>
       <c r="G18" s="18">
-        <v>5082000</v>
+        <v>9038767</v>
       </c>
       <c r="H18" s="18">
-        <v>7545381</v>
+        <v>10661133</v>
       </c>
     </row>
     <row r="19">
@@ -666,19 +666,19 @@
         <v/>
       </c>
       <c r="D19" s="12">
-        <v>96687</v>
+        <v>19722</v>
       </c>
       <c r="E19" s="12">
-        <v>116606</v>
+        <v>19874</v>
       </c>
       <c r="F19" s="12">
-        <v>100599</v>
+        <v>20834</v>
       </c>
       <c r="G19" s="12">
-        <v>10837</v>
+        <v>40202</v>
       </c>
       <c r="H19" s="12">
-        <v>20834</v>
+        <v>33039</v>
       </c>
     </row>
     <row r="20">
@@ -691,19 +691,19 @@
         <v/>
       </c>
       <c r="D20" s="16">
-        <v>401041</v>
+        <v>1731772</v>
       </c>
       <c r="E20" s="16">
-        <v>401804</v>
+        <v>1900824</v>
       </c>
       <c r="F20" s="16">
-        <v>391197</v>
+        <v>2233024</v>
       </c>
       <c r="G20" s="16">
-        <v>797596</v>
+        <v>2233024</v>
       </c>
       <c r="H20" s="16">
-        <v>2233024</v>
+        <v>2332824</v>
       </c>
     </row>
     <row r="21">
@@ -741,19 +741,19 @@
         <v/>
       </c>
       <c r="D22" s="16">
-        <v>776837</v>
+        <v>8545806</v>
       </c>
       <c r="E22" s="16">
-        <v>819967</v>
+        <v>8591438</v>
       </c>
       <c r="F22" s="16">
-        <v>6459734</v>
+        <v>8746581</v>
       </c>
       <c r="G22" s="16">
-        <v>7631029</v>
+        <v>8869076</v>
       </c>
       <c r="H22" s="16">
-        <v>8746581</v>
+        <v>8904896</v>
       </c>
     </row>
     <row r="23">
@@ -766,19 +766,19 @@
         <v/>
       </c>
       <c r="D23" s="12">
-        <v>5568</v>
+        <v>5873</v>
       </c>
       <c r="E23" s="12">
-        <v>5568</v>
+        <v>12264</v>
       </c>
       <c r="F23" s="12">
-        <v>6064</v>
+        <v>5873</v>
       </c>
       <c r="G23" s="12">
-        <v>6057</v>
+        <v>5876</v>
       </c>
       <c r="H23" s="12">
-        <v>5873</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="24">
@@ -826,13 +826,13 @@
         <v/>
       </c>
       <c r="D25" s="12">
-        <v>3077</v>
+        <v>0</v>
       </c>
       <c r="E25" s="12">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="12">
-        <v>27624</v>
+        <v>0</v>
       </c>
       <c r="G25" s="12">
         <v>0</v>
@@ -851,19 +851,19 @@
         <v/>
       </c>
       <c r="D26" s="18">
-        <v>1283210</v>
+        <v>10303173</v>
       </c>
       <c r="E26" s="18">
-        <v>1345945</v>
+        <v>10524400</v>
       </c>
       <c r="F26" s="18">
-        <v>6985218</v>
+        <v>11006312</v>
       </c>
       <c r="G26" s="18">
-        <v>8445519</v>
+        <v>11148178</v>
       </c>
       <c r="H26" s="18">
-        <v>11006312</v>
+        <v>11276637</v>
       </c>
     </row>
     <row r="27">
@@ -876,19 +876,19 @@
         <v/>
       </c>
       <c r="D27" s="20">
-        <v>3183592</v>
+        <v>15460790</v>
       </c>
       <c r="E27" s="20">
-        <v>3517795</v>
+        <v>17458470</v>
       </c>
       <c r="F27" s="20">
-        <v>10342720</v>
+        <v>18551693</v>
       </c>
       <c r="G27" s="20">
-        <v>13527519</v>
+        <v>20186945</v>
       </c>
       <c r="H27" s="20">
-        <v>18551693</v>
+        <v>21937770</v>
       </c>
     </row>
     <row r="28">
@@ -926,19 +926,19 @@
         <v/>
       </c>
       <c r="D29" s="16">
-        <v>716625</v>
+        <v>1606626</v>
       </c>
       <c r="E29" s="16">
-        <v>844806</v>
+        <v>2078608</v>
       </c>
       <c r="F29" s="16">
-        <v>760333</v>
+        <v>2313769</v>
       </c>
       <c r="G29" s="16">
-        <v>1184047</v>
+        <v>2308159</v>
       </c>
       <c r="H29" s="16">
-        <v>2313769</v>
+        <v>2178267</v>
       </c>
     </row>
     <row r="30">
@@ -1011,19 +1011,19 @@
         <v/>
       </c>
       <c r="D32" s="12">
-        <v>72544</v>
+        <v>322866</v>
       </c>
       <c r="E32" s="12">
-        <v>126453</v>
+        <v>568053</v>
       </c>
       <c r="F32" s="12">
-        <v>302129</v>
+        <v>538544</v>
       </c>
       <c r="G32" s="12">
-        <v>583195</v>
+        <v>688882</v>
       </c>
       <c r="H32" s="12">
-        <v>538544</v>
+        <v>768971</v>
       </c>
     </row>
     <row r="33">
@@ -1036,19 +1036,19 @@
         <v/>
       </c>
       <c r="D33" s="16">
-        <v>49583</v>
+        <v>166365</v>
       </c>
       <c r="E33" s="16">
-        <v>62462</v>
+        <v>150678</v>
       </c>
       <c r="F33" s="16">
-        <v>76443</v>
+        <v>134110</v>
       </c>
       <c r="G33" s="16">
-        <v>108930</v>
+        <v>942091</v>
       </c>
       <c r="H33" s="16">
-        <v>134110</v>
+        <v>882030</v>
       </c>
     </row>
     <row r="34">
@@ -1061,19 +1061,19 @@
         <v/>
       </c>
       <c r="D34" s="12">
-        <v>293249</v>
+        <v>3024836</v>
       </c>
       <c r="E34" s="12">
-        <v>90315</v>
+        <v>3706096</v>
       </c>
       <c r="F34" s="12">
-        <v>529935</v>
+        <v>4487562</v>
       </c>
       <c r="G34" s="12">
-        <v>1692235</v>
+        <v>4880724</v>
       </c>
       <c r="H34" s="12">
-        <v>4487562</v>
+        <v>5547022</v>
       </c>
     </row>
     <row r="35">
@@ -1086,19 +1086,19 @@
         <v/>
       </c>
       <c r="D35" s="16">
-        <v>0</v>
+        <v>98885</v>
       </c>
       <c r="E35" s="16">
-        <v>0</v>
+        <v>139082</v>
       </c>
       <c r="F35" s="16">
-        <v>44081</v>
+        <v>66561</v>
       </c>
       <c r="G35" s="16">
-        <v>36724</v>
+        <v>80743</v>
       </c>
       <c r="H35" s="16">
-        <v>66561</v>
+        <v>157056</v>
       </c>
     </row>
     <row r="36">
@@ -1136,19 +1136,19 @@
         <v/>
       </c>
       <c r="D37" s="18">
-        <v>1132001</v>
+        <v>5219578</v>
       </c>
       <c r="E37" s="18">
-        <v>1124036</v>
+        <v>6642517</v>
       </c>
       <c r="F37" s="18">
-        <v>1712921</v>
+        <v>7540546</v>
       </c>
       <c r="G37" s="18">
-        <v>3605131</v>
+        <v>8900599</v>
       </c>
       <c r="H37" s="18">
-        <v>7540546</v>
+        <v>9533346</v>
       </c>
     </row>
     <row r="38">
@@ -1185,8 +1185,10 @@
       <c r="C39" s="16">
         <v/>
       </c>
-      <c r="D39" s="16">
-        <v>0</v>
+      <c r="D39" s="16" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E39" s="16" t="inlineStr">
         <is>
@@ -1244,19 +1246,19 @@
         <v/>
       </c>
       <c r="D41" s="16">
-        <v>109467</v>
+        <v>253343</v>
       </c>
       <c r="E41" s="16">
-        <v>127100</v>
+        <v>299802</v>
       </c>
       <c r="F41" s="16">
-        <v>152960</v>
+        <v>269721</v>
       </c>
       <c r="G41" s="16">
-        <v>193323</v>
+        <v>418005</v>
       </c>
       <c r="H41" s="16">
-        <v>269721</v>
+        <v>363037</v>
       </c>
     </row>
     <row r="42">
@@ -1269,19 +1271,19 @@
         <v/>
       </c>
       <c r="D42" s="20">
-        <v>109467</v>
+        <v>253343</v>
       </c>
       <c r="E42" s="20">
-        <v>127100</v>
+        <v>299802</v>
       </c>
       <c r="F42" s="20">
-        <v>152960</v>
+        <v>269721</v>
       </c>
       <c r="G42" s="20">
-        <v>193323</v>
+        <v>418005</v>
       </c>
       <c r="H42" s="20">
-        <v>269721</v>
+        <v>363037</v>
       </c>
     </row>
     <row r="43">
@@ -1294,19 +1296,19 @@
         <v/>
       </c>
       <c r="D43" s="18">
-        <v>1241468</v>
+        <v>5472921</v>
       </c>
       <c r="E43" s="18">
-        <v>1251136</v>
+        <v>6942319</v>
       </c>
       <c r="F43" s="18">
-        <v>1865881</v>
+        <v>7810267</v>
       </c>
       <c r="G43" s="18">
-        <v>3798454</v>
+        <v>9318604</v>
       </c>
       <c r="H43" s="18">
-        <v>7810267</v>
+        <v>9896383</v>
       </c>
     </row>
     <row r="44">
@@ -1344,16 +1346,16 @@
         <v/>
       </c>
       <c r="D45" s="16">
-        <v>1260000</v>
+        <v>6622407</v>
       </c>
       <c r="E45" s="16">
-        <v>1260000</v>
+        <v>6622407</v>
       </c>
       <c r="F45" s="16">
-        <v>1260000</v>
+        <v>9000000</v>
       </c>
       <c r="G45" s="16">
-        <v>6622407</v>
+        <v>9000000</v>
       </c>
       <c r="H45" s="16">
         <v>9000000</v>
@@ -1443,10 +1445,8 @@
       <c r="C49" s="16">
         <v/>
       </c>
-      <c r="D49" s="16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="D49" s="16">
+        <v>0</v>
       </c>
       <c r="E49" s="16">
         <v>0</v>
@@ -1471,16 +1471,16 @@
         <v/>
       </c>
       <c r="D50" s="12">
-        <v>75378</v>
+        <v>198545</v>
       </c>
       <c r="E50" s="12">
-        <v>97904</v>
+        <v>198545</v>
       </c>
       <c r="F50" s="12">
-        <v>126000</v>
+        <v>256448</v>
       </c>
       <c r="G50" s="12">
-        <v>198545</v>
+        <v>256448</v>
       </c>
       <c r="H50" s="12">
         <v>256448</v>
@@ -1520,8 +1520,10 @@
       <c r="C52" s="12">
         <v/>
       </c>
-      <c r="D52" s="12">
-        <v>0</v>
+      <c r="D52" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
         <is>
@@ -1560,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="16">
-        <v>5362407</v>
+        <v>0</v>
       </c>
       <c r="G53" s="16">
         <v>0</v>
@@ -1578,8 +1580,10 @@
       <c r="C54" s="12">
         <v/>
       </c>
-      <c r="D54" s="12">
-        <v>0</v>
+      <c r="D54" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="E54" s="12" t="inlineStr">
         <is>
@@ -1637,19 +1641,19 @@
         <v/>
       </c>
       <c r="D56" s="12">
-        <v>606711</v>
+        <v>3166882</v>
       </c>
       <c r="E56" s="12">
-        <v>908720</v>
+        <v>3695164</v>
       </c>
       <c r="F56" s="12">
-        <v>1728397</v>
+        <v>1484943</v>
       </c>
       <c r="G56" s="12">
-        <v>2908078</v>
+        <v>1611858</v>
       </c>
       <c r="H56" s="12">
-        <v>1484943</v>
+        <v>2784904</v>
       </c>
     </row>
     <row r="57">
@@ -1662,19 +1666,19 @@
         <v/>
       </c>
       <c r="D57" s="18">
-        <v>1942124</v>
+        <v>9987869</v>
       </c>
       <c r="E57" s="18">
-        <v>2266659</v>
+        <v>10516151</v>
       </c>
       <c r="F57" s="18">
-        <v>8476839</v>
+        <v>10741426</v>
       </c>
       <c r="G57" s="18">
-        <v>9729065</v>
+        <v>10868341</v>
       </c>
       <c r="H57" s="18">
-        <v>10741426</v>
+        <v>12041387</v>
       </c>
     </row>
     <row r="58">
@@ -1687,19 +1691,19 @@
         <v/>
       </c>
       <c r="D58" s="20">
-        <v>3183592</v>
+        <v>15460790</v>
       </c>
       <c r="E58" s="20">
-        <v>3517795</v>
+        <v>17458470</v>
       </c>
       <c r="F58" s="20">
-        <v>10342720</v>
+        <v>18551693</v>
       </c>
       <c r="G58" s="20">
-        <v>13527519</v>
+        <v>20186945</v>
       </c>
       <c r="H58" s="20">
-        <v>18551693</v>
+        <v>21937770</v>
       </c>
     </row>
     <row r="59">

--- a/database/industries/ghaza/ghepino/balancesheet/quarterly.xlsx
+++ b/database/industries/ghaza/ghepino/balancesheet/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\ghepino\balancesheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\ghepino\balancesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DB3293-7C6C-40E7-85E8-F999D4FA04BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA999124-9CF0-4AB9-A41D-7B0093726AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1399-09-09 (2)</t>
+  </si>
+  <si>
+    <t>1399-10-29</t>
+  </si>
+  <si>
+    <t>1401-02-26 (11)</t>
+  </si>
+  <si>
+    <t>1400-08-25 (3)</t>
+  </si>
+  <si>
+    <t>1400-08-10 (2)</t>
   </si>
   <si>
     <t>1400-10-30</t>
@@ -698,20 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H59"/>
+  <dimension ref="B1:M59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="67" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -719,8 +751,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -730,8 +767,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -741,8 +783,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -750,8 +797,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -761,8 +813,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -772,8 +829,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -781,8 +843,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -802,29 +869,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -832,10 +929,15 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -843,38 +945,58 @@
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15">
+        <v>315949</v>
+      </c>
+      <c r="E12" s="15">
+        <v>174757</v>
+      </c>
+      <c r="F12" s="15">
+        <v>169459</v>
+      </c>
+      <c r="G12" s="15">
+        <v>54670</v>
+      </c>
+      <c r="H12" s="15">
+        <v>54670</v>
+      </c>
+      <c r="I12" s="15">
         <v>122282</v>
       </c>
-      <c r="E12" s="15">
+      <c r="J12" s="15">
         <v>42724</v>
       </c>
-      <c r="F12" s="15">
+      <c r="K12" s="15">
         <v>303446</v>
       </c>
-      <c r="G12" s="15">
+      <c r="L12" s="15">
         <v>219357</v>
       </c>
-      <c r="H12" s="15">
+      <c r="M12" s="15">
         <v>185917</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11">
-        <v>0</v>
+        <v>1718</v>
       </c>
       <c r="E13" s="11">
-        <v>0</v>
+        <v>1718</v>
       </c>
       <c r="F13" s="11">
         <v>0</v>
@@ -885,73 +1007,133 @@
       <c r="H13" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>0</v>
+      </c>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15">
+        <v>2162511</v>
+      </c>
+      <c r="E14" s="15">
+        <v>2535981</v>
+      </c>
+      <c r="F14" s="15">
+        <v>2639597</v>
+      </c>
+      <c r="G14" s="15">
+        <v>2767317</v>
+      </c>
+      <c r="H14" s="15">
+        <v>2755422</v>
+      </c>
+      <c r="I14" s="15">
         <v>4027727</v>
       </c>
-      <c r="E14" s="15">
+      <c r="J14" s="15">
         <v>4562285</v>
       </c>
-      <c r="F14" s="15">
+      <c r="K14" s="15">
         <v>5586203</v>
       </c>
-      <c r="G14" s="15">
+      <c r="L14" s="15">
         <v>7456431</v>
       </c>
-      <c r="H14" s="15">
+      <c r="M14" s="15">
         <v>8179582</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11">
+        <v>1657758</v>
+      </c>
+      <c r="E15" s="11">
+        <v>1730181</v>
+      </c>
+      <c r="F15" s="11">
+        <v>2183919</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1880302</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1880302</v>
+      </c>
+      <c r="I15" s="11">
         <v>1946913</v>
       </c>
-      <c r="E15" s="11">
+      <c r="J15" s="11">
         <v>2268622</v>
       </c>
-      <c r="F15" s="11">
+      <c r="K15" s="11">
         <v>2635516</v>
       </c>
-      <c r="G15" s="11">
+      <c r="L15" s="11">
         <v>2598375</v>
       </c>
-      <c r="H15" s="11">
+      <c r="M15" s="11">
         <v>2417446</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15">
+        <v>103083</v>
+      </c>
+      <c r="E16" s="15">
+        <v>462525</v>
+      </c>
+      <c r="F16" s="15">
+        <v>89025</v>
+      </c>
+      <c r="G16" s="15">
+        <v>467223</v>
+      </c>
+      <c r="H16" s="15">
+        <v>467223</v>
+      </c>
+      <c r="I16" s="15">
         <v>837148</v>
       </c>
-      <c r="E16" s="15">
+      <c r="J16" s="15">
         <v>671750</v>
       </c>
-      <c r="F16" s="15">
+      <c r="K16" s="15">
         <v>513602</v>
       </c>
-      <c r="G16" s="15">
+      <c r="L16" s="15">
         <v>386970</v>
       </c>
-      <c r="H16" s="15">
+      <c r="M16" s="15">
         <v>1507533</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11">
@@ -969,73 +1151,133 @@
       <c r="H17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17">
+        <v>4241019</v>
+      </c>
+      <c r="E18" s="17">
+        <v>4905162</v>
+      </c>
+      <c r="F18" s="17">
+        <v>5082000</v>
+      </c>
+      <c r="G18" s="17">
+        <v>5169512</v>
+      </c>
+      <c r="H18" s="17">
+        <v>5157617</v>
+      </c>
+      <c r="I18" s="17">
         <v>6934070</v>
       </c>
-      <c r="E18" s="17">
+      <c r="J18" s="17">
         <v>7545381</v>
       </c>
-      <c r="F18" s="17">
+      <c r="K18" s="17">
         <v>9038767</v>
       </c>
-      <c r="G18" s="17">
+      <c r="L18" s="17">
         <v>10661133</v>
       </c>
-      <c r="H18" s="17">
+      <c r="M18" s="17">
         <v>12290478</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11">
+        <v>101632</v>
+      </c>
+      <c r="E19" s="11">
+        <v>101468</v>
+      </c>
+      <c r="F19" s="11">
+        <v>10837</v>
+      </c>
+      <c r="G19" s="11">
+        <v>19722</v>
+      </c>
+      <c r="H19" s="11">
+        <v>19722</v>
+      </c>
+      <c r="I19" s="11">
         <v>19874</v>
       </c>
-      <c r="E19" s="11">
+      <c r="J19" s="11">
         <v>20834</v>
       </c>
-      <c r="F19" s="11">
+      <c r="K19" s="11">
         <v>40202</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>33039</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>69430</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15">
+        <v>391050</v>
+      </c>
+      <c r="E20" s="15">
+        <v>391049</v>
+      </c>
+      <c r="F20" s="15">
+        <v>797596</v>
+      </c>
+      <c r="G20" s="15">
+        <v>1731772</v>
+      </c>
+      <c r="H20" s="15">
+        <v>1731772</v>
+      </c>
+      <c r="I20" s="15">
         <v>1900824</v>
       </c>
-      <c r="E20" s="15">
+      <c r="J20" s="15">
         <v>2233024</v>
       </c>
-      <c r="F20" s="15">
+      <c r="K20" s="15">
         <v>2233024</v>
       </c>
-      <c r="G20" s="15">
+      <c r="L20" s="15">
         <v>2332824</v>
       </c>
-      <c r="H20" s="15">
+      <c r="M20" s="15">
         <v>2332824</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11">
@@ -1053,80 +1295,140 @@
       <c r="H21" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="11">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11">
+        <v>0</v>
+      </c>
+      <c r="K21" s="11">
+        <v>0</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0</v>
+      </c>
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15">
+        <v>6703589</v>
+      </c>
+      <c r="E22" s="15">
+        <v>6562978</v>
+      </c>
+      <c r="F22" s="15">
+        <v>7631029</v>
+      </c>
+      <c r="G22" s="15">
+        <v>8575632</v>
+      </c>
+      <c r="H22" s="15">
+        <v>8545806</v>
+      </c>
+      <c r="I22" s="15">
         <v>8591438</v>
       </c>
-      <c r="E22" s="15">
+      <c r="J22" s="15">
         <v>8746581</v>
       </c>
-      <c r="F22" s="15">
+      <c r="K22" s="15">
         <v>8869076</v>
       </c>
-      <c r="G22" s="15">
+      <c r="L22" s="15">
         <v>8904896</v>
       </c>
-      <c r="H22" s="15">
+      <c r="M22" s="15">
         <v>9216155</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11">
+        <v>6047</v>
+      </c>
+      <c r="E23" s="11">
+        <v>6049</v>
+      </c>
+      <c r="F23" s="11">
+        <v>6057</v>
+      </c>
+      <c r="G23" s="11">
+        <v>5873</v>
+      </c>
+      <c r="H23" s="11">
+        <v>5873</v>
+      </c>
+      <c r="I23" s="11">
         <v>12264</v>
       </c>
-      <c r="E23" s="11">
+      <c r="J23" s="11">
         <v>5873</v>
       </c>
-      <c r="F23" s="11">
+      <c r="K23" s="11">
         <v>5876</v>
       </c>
-      <c r="G23" s="11">
+      <c r="L23" s="11">
         <v>5878</v>
       </c>
-      <c r="H23" s="11">
+      <c r="M23" s="11">
         <v>12272</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="11">
-        <v>0</v>
+        <v>35659</v>
       </c>
       <c r="E25" s="11">
-        <v>0</v>
+        <v>10615</v>
       </c>
       <c r="F25" s="11">
         <v>0</v>
@@ -1137,52 +1439,97 @@
       <c r="H25" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="11">
+        <v>0</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17">
+        <v>7237977</v>
+      </c>
+      <c r="E26" s="17">
+        <v>7072159</v>
+      </c>
+      <c r="F26" s="17">
+        <v>8445519</v>
+      </c>
+      <c r="G26" s="17">
+        <v>10332999</v>
+      </c>
+      <c r="H26" s="17">
+        <v>10303173</v>
+      </c>
+      <c r="I26" s="17">
         <v>10524400</v>
       </c>
-      <c r="E26" s="17">
+      <c r="J26" s="17">
         <v>11006312</v>
       </c>
-      <c r="F26" s="17">
+      <c r="K26" s="17">
         <v>11148178</v>
       </c>
-      <c r="G26" s="17">
+      <c r="L26" s="17">
         <v>11276637</v>
       </c>
-      <c r="H26" s="17">
+      <c r="M26" s="17">
         <v>11630681</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19">
+        <v>11478996</v>
+      </c>
+      <c r="E27" s="19">
+        <v>11977321</v>
+      </c>
+      <c r="F27" s="19">
+        <v>13527519</v>
+      </c>
+      <c r="G27" s="19">
+        <v>15502511</v>
+      </c>
+      <c r="H27" s="19">
+        <v>15460790</v>
+      </c>
+      <c r="I27" s="19">
         <v>17458470</v>
       </c>
-      <c r="E27" s="19">
+      <c r="J27" s="19">
         <v>18551693</v>
       </c>
-      <c r="F27" s="19">
+      <c r="K27" s="19">
         <v>20186945</v>
       </c>
-      <c r="G27" s="19">
+      <c r="L27" s="19">
         <v>21937770</v>
       </c>
-      <c r="H27" s="19">
+      <c r="M27" s="19">
         <v>23921159</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -1190,52 +1537,87 @@
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
       <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C29" s="15"/>
       <c r="D29" s="15">
+        <v>909195</v>
+      </c>
+      <c r="E29" s="15">
+        <v>833895</v>
+      </c>
+      <c r="F29" s="15">
+        <v>1184047</v>
+      </c>
+      <c r="G29" s="15">
+        <v>1519215</v>
+      </c>
+      <c r="H29" s="15">
+        <v>1606626</v>
+      </c>
+      <c r="I29" s="15">
         <v>2078608</v>
       </c>
-      <c r="E29" s="15">
+      <c r="J29" s="15">
         <v>2313769</v>
       </c>
-      <c r="F29" s="15">
+      <c r="K29" s="15">
         <v>2308159</v>
       </c>
-      <c r="G29" s="15">
+      <c r="L29" s="15">
         <v>2178267</v>
       </c>
-      <c r="H29" s="15">
+      <c r="M29" s="15">
         <v>2943910</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15">
@@ -1253,94 +1635,169 @@
       <c r="H31" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="15">
+        <v>0</v>
+      </c>
+      <c r="J31" s="15">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
+        <v>0</v>
+      </c>
+      <c r="M31" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11">
+        <v>305095</v>
+      </c>
+      <c r="E32" s="11">
+        <v>297492</v>
+      </c>
+      <c r="F32" s="11">
+        <v>583195</v>
+      </c>
+      <c r="G32" s="11">
+        <v>296552</v>
+      </c>
+      <c r="H32" s="11">
+        <v>322866</v>
+      </c>
+      <c r="I32" s="11">
         <v>568053</v>
       </c>
-      <c r="E32" s="11">
+      <c r="J32" s="11">
         <v>538544</v>
       </c>
-      <c r="F32" s="11">
+      <c r="K32" s="11">
         <v>688882</v>
       </c>
-      <c r="G32" s="11">
+      <c r="L32" s="11">
         <v>768971</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>1220178</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15">
+        <v>270880</v>
+      </c>
+      <c r="E33" s="15">
+        <v>134555</v>
+      </c>
+      <c r="F33" s="15">
+        <v>108930</v>
+      </c>
+      <c r="G33" s="15">
+        <v>166365</v>
+      </c>
+      <c r="H33" s="15">
+        <v>166365</v>
+      </c>
+      <c r="I33" s="15">
         <v>150678</v>
       </c>
-      <c r="E33" s="15">
+      <c r="J33" s="15">
         <v>134110</v>
       </c>
-      <c r="F33" s="15">
+      <c r="K33" s="15">
         <v>942091</v>
       </c>
-      <c r="G33" s="15">
+      <c r="L33" s="15">
         <v>882030</v>
       </c>
-      <c r="H33" s="15">
+      <c r="M33" s="15">
         <v>143250</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11">
+        <v>960692</v>
+      </c>
+      <c r="E34" s="11">
+        <v>1174595</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1692235</v>
+      </c>
+      <c r="G34" s="11">
+        <v>3024836</v>
+      </c>
+      <c r="H34" s="11">
+        <v>3024836</v>
+      </c>
+      <c r="I34" s="11">
         <v>3706096</v>
       </c>
-      <c r="E34" s="11">
+      <c r="J34" s="11">
         <v>4487562</v>
       </c>
-      <c r="F34" s="11">
+      <c r="K34" s="11">
         <v>4880724</v>
       </c>
-      <c r="G34" s="11">
+      <c r="L34" s="11">
         <v>5547022</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>5599933</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15">
+        <v>0</v>
+      </c>
+      <c r="E35" s="15">
+        <v>0</v>
+      </c>
+      <c r="F35" s="15">
+        <v>36724</v>
+      </c>
+      <c r="G35" s="15">
+        <v>98885</v>
+      </c>
+      <c r="H35" s="15">
+        <v>98885</v>
+      </c>
+      <c r="I35" s="15">
         <v>139082</v>
       </c>
-      <c r="E35" s="15">
+      <c r="J35" s="15">
         <v>66561</v>
       </c>
-      <c r="F35" s="15">
+      <c r="K35" s="15">
         <v>80743</v>
       </c>
-      <c r="G35" s="15">
+      <c r="L35" s="15">
         <v>157056</v>
       </c>
-      <c r="H35" s="15">
+      <c r="M35" s="15">
         <v>142314</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11">
@@ -1358,31 +1815,61 @@
       <c r="H36" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="11">
+        <v>0</v>
+      </c>
+      <c r="J36" s="11">
+        <v>0</v>
+      </c>
+      <c r="K36" s="11">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="16" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C37" s="17"/>
       <c r="D37" s="17">
+        <v>2445862</v>
+      </c>
+      <c r="E37" s="17">
+        <v>2440537</v>
+      </c>
+      <c r="F37" s="17">
+        <v>3605131</v>
+      </c>
+      <c r="G37" s="17">
+        <v>5105853</v>
+      </c>
+      <c r="H37" s="17">
+        <v>5219578</v>
+      </c>
+      <c r="I37" s="17">
         <v>6642517</v>
       </c>
-      <c r="E37" s="17">
+      <c r="J37" s="17">
         <v>7540546</v>
       </c>
-      <c r="F37" s="17">
+      <c r="K37" s="17">
         <v>8900599</v>
       </c>
-      <c r="G37" s="17">
+      <c r="L37" s="17">
         <v>9533346</v>
       </c>
-      <c r="H37" s="17">
+      <c r="M37" s="17">
         <v>10049585</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="11">
@@ -1400,31 +1887,61 @@
       <c r="H38" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="11">
+        <v>0</v>
+      </c>
+      <c r="J38" s="11">
+        <v>0</v>
+      </c>
+      <c r="K38" s="11">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11">
+        <v>0</v>
+      </c>
+      <c r="M38" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M39" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="11">
@@ -1442,73 +1959,133 @@
       <c r="H40" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11">
+        <v>0</v>
+      </c>
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C41" s="15"/>
       <c r="D41" s="15">
+        <v>199554</v>
+      </c>
+      <c r="E41" s="15">
+        <v>173245</v>
+      </c>
+      <c r="F41" s="15">
+        <v>193323</v>
+      </c>
+      <c r="G41" s="15">
+        <v>253343</v>
+      </c>
+      <c r="H41" s="15">
+        <v>253343</v>
+      </c>
+      <c r="I41" s="15">
         <v>299802</v>
       </c>
-      <c r="E41" s="15">
+      <c r="J41" s="15">
         <v>269721</v>
       </c>
-      <c r="F41" s="15">
+      <c r="K41" s="15">
         <v>418005</v>
       </c>
-      <c r="G41" s="15">
+      <c r="L41" s="15">
         <v>363037</v>
       </c>
-      <c r="H41" s="15">
+      <c r="M41" s="15">
         <v>449723</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" s="18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C42" s="19"/>
       <c r="D42" s="19">
+        <v>199554</v>
+      </c>
+      <c r="E42" s="19">
+        <v>173245</v>
+      </c>
+      <c r="F42" s="19">
+        <v>193323</v>
+      </c>
+      <c r="G42" s="19">
+        <v>253343</v>
+      </c>
+      <c r="H42" s="19">
+        <v>253343</v>
+      </c>
+      <c r="I42" s="19">
         <v>299802</v>
       </c>
-      <c r="E42" s="19">
+      <c r="J42" s="19">
         <v>269721</v>
       </c>
-      <c r="F42" s="19">
+      <c r="K42" s="19">
         <v>418005</v>
       </c>
-      <c r="G42" s="19">
+      <c r="L42" s="19">
         <v>363037</v>
       </c>
-      <c r="H42" s="19">
+      <c r="M42" s="19">
         <v>449723</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C43" s="17"/>
       <c r="D43" s="17">
+        <v>2645416</v>
+      </c>
+      <c r="E43" s="17">
+        <v>2613782</v>
+      </c>
+      <c r="F43" s="17">
+        <v>3798454</v>
+      </c>
+      <c r="G43" s="17">
+        <v>5359196</v>
+      </c>
+      <c r="H43" s="17">
+        <v>5472921</v>
+      </c>
+      <c r="I43" s="17">
         <v>6942319</v>
       </c>
-      <c r="E43" s="17">
+      <c r="J43" s="17">
         <v>7810267</v>
       </c>
-      <c r="F43" s="17">
+      <c r="K43" s="17">
         <v>9318604</v>
       </c>
-      <c r="G43" s="17">
+      <c r="L43" s="17">
         <v>9896383</v>
       </c>
-      <c r="H43" s="17">
+      <c r="M43" s="17">
         <v>10499308</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
@@ -1516,31 +2093,51 @@
       <c r="F44" s="13"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15">
         <v>6622407</v>
       </c>
       <c r="E45" s="15">
+        <v>6622407</v>
+      </c>
+      <c r="F45" s="15">
+        <v>6622407</v>
+      </c>
+      <c r="G45" s="15">
+        <v>6622407</v>
+      </c>
+      <c r="H45" s="15">
+        <v>6622407</v>
+      </c>
+      <c r="I45" s="15">
+        <v>6622407</v>
+      </c>
+      <c r="J45" s="15">
         <v>9000000</v>
       </c>
-      <c r="F45" s="15">
+      <c r="K45" s="15">
         <v>9000000</v>
       </c>
-      <c r="G45" s="15">
+      <c r="L45" s="15">
         <v>9000000</v>
       </c>
-      <c r="H45" s="15">
+      <c r="M45" s="15">
         <v>9000000</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="11">
@@ -1558,10 +2155,25 @@
       <c r="H46" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="11">
+        <v>0</v>
+      </c>
+      <c r="J46" s="11">
+        <v>0</v>
+      </c>
+      <c r="K46" s="11">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="15">
@@ -1579,10 +2191,25 @@
       <c r="H47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="15">
+        <v>0</v>
+      </c>
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11">
@@ -1600,10 +2227,25 @@
       <c r="H48" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="11">
+        <v>0</v>
+      </c>
+      <c r="J48" s="11">
+        <v>0</v>
+      </c>
+      <c r="K48" s="11">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11">
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="15">
@@ -1621,31 +2263,61 @@
       <c r="H49" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="15">
+        <v>0</v>
+      </c>
+      <c r="J49" s="15">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="15">
+        <v>0</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11">
+        <v>126000</v>
+      </c>
+      <c r="E50" s="11">
+        <v>126000</v>
+      </c>
+      <c r="F50" s="11">
         <v>198545</v>
       </c>
-      <c r="E50" s="11">
+      <c r="G50" s="11">
+        <v>198545</v>
+      </c>
+      <c r="H50" s="11">
+        <v>198545</v>
+      </c>
+      <c r="I50" s="11">
+        <v>198545</v>
+      </c>
+      <c r="J50" s="11">
         <v>256448</v>
       </c>
-      <c r="F50" s="11">
+      <c r="K50" s="11">
         <v>256448</v>
       </c>
-      <c r="G50" s="11">
+      <c r="L50" s="11">
         <v>256448</v>
       </c>
-      <c r="H50" s="11">
+      <c r="M50" s="11">
         <v>256448</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15">
@@ -1663,31 +2335,61 @@
       <c r="H51" s="15">
         <v>35</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="15">
+        <v>35</v>
+      </c>
+      <c r="J51" s="15">
+        <v>35</v>
+      </c>
+      <c r="K51" s="15">
+        <v>35</v>
+      </c>
+      <c r="L51" s="15">
+        <v>35</v>
+      </c>
+      <c r="M51" s="15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L52" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="14" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15">
@@ -1705,31 +2407,61 @@
       <c r="H53" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="15">
+        <v>0</v>
+      </c>
+      <c r="J53" s="15">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="15">
+        <v>0</v>
+      </c>
+      <c r="M53" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="L54" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="14" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15">
@@ -1747,71 +2479,131 @@
       <c r="H55" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="15">
+        <v>0</v>
+      </c>
+      <c r="J55" s="15">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="15">
+        <v>0</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11">
+        <v>2085138</v>
+      </c>
+      <c r="E56" s="11">
+        <v>2615097</v>
+      </c>
+      <c r="F56" s="11">
+        <v>2908078</v>
+      </c>
+      <c r="G56" s="11">
+        <v>3322328</v>
+      </c>
+      <c r="H56" s="11">
+        <v>3166882</v>
+      </c>
+      <c r="I56" s="11">
         <v>3695164</v>
       </c>
-      <c r="E56" s="11">
+      <c r="J56" s="11">
         <v>1484943</v>
       </c>
-      <c r="F56" s="11">
+      <c r="K56" s="11">
         <v>1611858</v>
       </c>
-      <c r="G56" s="11">
+      <c r="L56" s="11">
         <v>2784904</v>
       </c>
-      <c r="H56" s="11">
+      <c r="M56" s="11">
         <v>4165368</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17">
+        <v>8833580</v>
+      </c>
+      <c r="E57" s="17">
+        <v>9363539</v>
+      </c>
+      <c r="F57" s="17">
+        <v>9729065</v>
+      </c>
+      <c r="G57" s="17">
+        <v>10143315</v>
+      </c>
+      <c r="H57" s="17">
+        <v>9987869</v>
+      </c>
+      <c r="I57" s="17">
         <v>10516151</v>
       </c>
-      <c r="E57" s="17">
+      <c r="J57" s="17">
         <v>10741426</v>
       </c>
-      <c r="F57" s="17">
+      <c r="K57" s="17">
         <v>10868341</v>
       </c>
-      <c r="G57" s="17">
+      <c r="L57" s="17">
         <v>12041387</v>
       </c>
-      <c r="H57" s="17">
+      <c r="M57" s="17">
         <v>13421851</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C58" s="19"/>
       <c r="D58" s="19">
+        <v>11478996</v>
+      </c>
+      <c r="E58" s="19">
+        <v>11977321</v>
+      </c>
+      <c r="F58" s="19">
+        <v>13527519</v>
+      </c>
+      <c r="G58" s="19">
+        <v>15502511</v>
+      </c>
+      <c r="H58" s="19">
+        <v>15460790</v>
+      </c>
+      <c r="I58" s="19">
         <v>17458470</v>
       </c>
-      <c r="E58" s="19">
+      <c r="J58" s="19">
         <v>18551693</v>
       </c>
-      <c r="F58" s="19">
+      <c r="K58" s="19">
         <v>20186945</v>
       </c>
-      <c r="G58" s="19">
+      <c r="L58" s="19">
         <v>21937770</v>
       </c>
-      <c r="H58" s="19">
+      <c r="M58" s="19">
         <v>23921159</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1819,6 +2611,11 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
